--- a/biology/Histoire de la zoologie et de la botanique/Marie_Clémence_Lesson/Marie_Clémence_Lesson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marie_Clémence_Lesson/Marie_Clémence_Lesson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie_Cl%C3%A9mence_Lesson</t>
+          <t>Marie_Clémence_Lesson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Clémence Lesson, née Dumont de Sainte-Croix le 2 mars 1800 à Paris et morte le 4 août 1834[1]à Rochefort est une illustratrice scientifique française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Clémence Lesson, née Dumont de Sainte-Croix le 2 mars 1800 à Paris et morte le 4 août 1834à Rochefort est une illustratrice scientifique française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie_Cl%C3%A9mence_Lesson</t>
+          <t>Marie_Clémence_Lesson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le père de Marie Clémence Lesson est le zoologiste français Charles Dumont de Sainte-Croix[1] et sa mère est Rosalie Rey de Neuvie (1777-1854)[2],[3]. Elle suit une formation d'artiste d'histoire naturelle à Paris[4],[5].
-Elle se marie en février 1827 à Paris avec l'ornithologue français René Lesson dont elle est la seconde épouse[6]. Ils ont une fille[7], Anaïs[6].
-Ses illustrations apparaissent dans le livre de son mari Histoire Naturelle des Oiseaux-Mouches[8]. Elle a également travaillé pour le botaniste Charles Paulus Bélanger, l'explorateur Louis Isidore Duperrey et l'ornithologiste Louis-Pierre Vieillot[8].
-Son mari nomme deux espèces d'oiseaux d’après elle, le Souimanga à dos vert (Cinnyris jugularis clementiae) en 1827 et le Colibri à gorge bleue (Lampornis clemenciae) en 1829[9].
-Marie Clémence Lesson meurt du choléra en 1834[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le père de Marie Clémence Lesson est le zoologiste français Charles Dumont de Sainte-Croix et sa mère est Rosalie Rey de Neuvie (1777-1854),. Elle suit une formation d'artiste d'histoire naturelle à Paris,.
+Elle se marie en février 1827 à Paris avec l'ornithologue français René Lesson dont elle est la seconde épouse. Ils ont une fille, Anaïs.
+Ses illustrations apparaissent dans le livre de son mari Histoire Naturelle des Oiseaux-Mouches. Elle a également travaillé pour le botaniste Charles Paulus Bélanger, l'explorateur Louis Isidore Duperrey et l'ornithologiste Louis-Pierre Vieillot.
+Son mari nomme deux espèces d'oiseaux d’après elle, le Souimanga à dos vert (Cinnyris jugularis clementiae) en 1827 et le Colibri à gorge bleue (Lampornis clemenciae) en 1829.
+Marie Clémence Lesson meurt du choléra en 1834.
 </t>
         </is>
       </c>
